--- a/F27_truncated/results_f27_3_suplin.xlsx
+++ b/F27_truncated/results_f27_3_suplin.xlsx
@@ -23,7 +23,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="275" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="97" uniqueCount="16">
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
   <si>
     <t>h=1e-2</t>
   </si>
@@ -44,15 +53,6 @@
   </si>
   <si>
     <t>Exact</t>
-  </si>
-  <si>
-    <t>Row</t>
-  </si>
-  <si>
-    <t>FD1</t>
-  </si>
-  <si>
-    <t>FD2</t>
   </si>
   <si>
     <t>Avergae Time</t>
@@ -134,33 +134,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0">
@@ -184,7 +184,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
@@ -219,14 +219,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="true"/>
-    <col min="2" max="2" width="9.5546875" customWidth="true"/>
+    <col min="2" max="2" width="13.5546875" customWidth="true"/>
     <col min="3" max="3" width="12.5546875" customWidth="true"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true"/>
+    <col min="4" max="4" width="12.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>13</v>
@@ -243,13 +243,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0034993000000000008</v>
+        <v>0.012179718181818185</v>
       </c>
       <c r="C2" s="0">
-        <v>0.17880436363636365</v>
+        <v>0.10467014545454546</v>
       </c>
       <c r="D2" s="0">
-        <v>1.3420492181818184</v>
+        <v>0.89480093636363633</v>
       </c>
     </row>
     <row r="3">
@@ -296,84 +296,84 @@
     <col min="2" max="2" width="6.6640625" customWidth="true"/>
     <col min="3" max="3" width="14.5546875" customWidth="true"/>
     <col min="4" max="4" width="14.5546875" customWidth="true"/>
-    <col min="5" max="5" width="9.5546875" customWidth="true"/>
+    <col min="5" max="5" width="14.5546875" customWidth="true"/>
     <col min="6" max="6" width="14.5546875" customWidth="true"/>
-    <col min="7" max="7" width="9.5546875" customWidth="true"/>
-    <col min="8" max="8" width="9.5546875" customWidth="true"/>
+    <col min="7" max="7" width="14.5546875" customWidth="true"/>
+    <col min="8" max="8" width="13.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0">
-        <v>0.0043560909090909093</v>
+        <v>0.0044131545454545451</v>
       </c>
       <c r="D2" s="0">
-        <v>0.0039244909090909086</v>
+        <v>0.0028419272727272728</v>
       </c>
       <c r="E2" s="0">
-        <v>0.0040986</v>
+        <v>0.0025669454545454548</v>
       </c>
       <c r="F2" s="0">
-        <v>0.0037831909090909094</v>
+        <v>0.0033022363636363641</v>
       </c>
       <c r="G2" s="0">
-        <v>0.0033475999999999996</v>
+        <v>0.0024738454545454548</v>
       </c>
       <c r="H2" s="0">
-        <v>0.0034993000000000008</v>
+        <v>0.012179718181818185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
-        <v>0.0042882636363636359</v>
+        <v>0.004970736363636364</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0040648999999999998</v>
+        <v>0.0037693363636363639</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0042928545454545457</v>
+        <v>0.0036354909090909092</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0040966727272727273</v>
+        <v>0.0034474818181818188</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0044251727272727271</v>
+        <v>0.0036453818181818184</v>
       </c>
       <c r="H3" s="0">
-        <v>0.0034993000000000008</v>
+        <v>0.012179718181818185</v>
       </c>
     </row>
   </sheetData>
@@ -400,33 +400,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0">
@@ -450,7 +450,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
@@ -496,33 +496,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0">
@@ -546,7 +546,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
@@ -583,7 +583,7 @@
     <col min="1" max="1" width="4.6640625" customWidth="true"/>
     <col min="2" max="2" width="6.6640625" customWidth="true"/>
     <col min="3" max="3" width="12.5546875" customWidth="true"/>
-    <col min="4" max="4" width="12.5546875" customWidth="true"/>
+    <col min="4" max="4" width="9.5546875" customWidth="true"/>
     <col min="5" max="5" width="12.5546875" customWidth="true"/>
     <col min="6" max="6" width="12.5546875" customWidth="true"/>
     <col min="7" max="7" width="12.5546875" customWidth="true"/>
@@ -592,76 +592,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0">
-        <v>0.42380864545454533</v>
+        <v>0.12851714545454546</v>
       </c>
       <c r="D2" s="0">
-        <v>0.28890514545454543</v>
+        <v>0.10367639999999999</v>
       </c>
       <c r="E2" s="0">
-        <v>0.24651143636363634</v>
+        <v>0.10828484545454545</v>
       </c>
       <c r="F2" s="0">
-        <v>0.26942749090909096</v>
+        <v>0.10995025454545453</v>
       </c>
       <c r="G2" s="0">
-        <v>0.31068322727272724</v>
+        <v>0.11186967272727272</v>
       </c>
       <c r="H2" s="0">
-        <v>0.17880436363636365</v>
+        <v>0.10467014545454546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
-        <v>0.42902606363636359</v>
+        <v>0.12667993636363636</v>
       </c>
       <c r="D3" s="0">
-        <v>0.40169348181818182</v>
+        <v>0.13308608181818185</v>
       </c>
       <c r="E3" s="0">
-        <v>0.33699558181818184</v>
+        <v>0.13727714545454545</v>
       </c>
       <c r="F3" s="0">
-        <v>0.38189650000000003</v>
+        <v>0.13669303636363636</v>
       </c>
       <c r="G3" s="0">
-        <v>0.31943857272727277</v>
+        <v>0.1466044</v>
       </c>
       <c r="H3" s="0">
-        <v>0.17880436363636365</v>
+        <v>0.10467014545454546</v>
       </c>
     </row>
   </sheetData>
@@ -688,33 +688,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0">
@@ -738,7 +738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
@@ -784,33 +784,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0">
@@ -834,7 +834,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
@@ -870,86 +870,86 @@
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="true"/>
     <col min="2" max="2" width="6.6640625" customWidth="true"/>
-    <col min="3" max="3" width="6.6640625" customWidth="true"/>
-    <col min="4" max="4" width="6.6640625" customWidth="true"/>
-    <col min="5" max="5" width="6.6640625" customWidth="true"/>
+    <col min="3" max="3" width="11.5546875" customWidth="true"/>
+    <col min="4" max="4" width="11.5546875" customWidth="true"/>
+    <col min="5" max="5" width="9.5546875" customWidth="true"/>
     <col min="6" max="6" width="7.6640625" customWidth="true"/>
-    <col min="7" max="7" width="7.6640625" customWidth="true"/>
-    <col min="8" max="8" width="11.5546875" customWidth="true"/>
+    <col min="7" max="7" width="11.5546875" customWidth="true"/>
+    <col min="8" max="8" width="12.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>1.4539565363636364</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>1.182700390909091</v>
       </c>
       <c r="E2" s="0">
-        <v>0</v>
+        <v>1.1304764999999997</v>
       </c>
       <c r="F2" s="0">
-        <v>0</v>
+        <v>1.12005</v>
       </c>
       <c r="G2" s="0">
-        <v>0</v>
+        <v>1.0886243454545452</v>
       </c>
       <c r="H2" s="0">
-        <v>1.3420492181818184</v>
+        <v>0.89480093636363633</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
-        <v>2.1210656272727273</v>
+        <v>1.3971956181818179</v>
       </c>
       <c r="D3" s="0">
-        <v>2.0067824818181816</v>
+        <v>1.4569189181818181</v>
       </c>
       <c r="E3" s="0">
-        <v>1.9072778454545456</v>
+        <v>1.3586254636363633</v>
       </c>
       <c r="F3" s="0">
-        <v>1.8684971272727273</v>
+        <v>1.3474199818181818</v>
       </c>
       <c r="G3" s="0">
-        <v>1.7876233999999998</v>
+        <v>1.3692899545454544</v>
       </c>
       <c r="H3" s="0">
-        <v>1.3420492181818184</v>
+        <v>0.89480093636363633</v>
       </c>
     </row>
   </sheetData>
@@ -976,33 +976,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0">
@@ -1026,7 +1026,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">

--- a/F27_truncated/results_f27_3_suplin.xlsx
+++ b/F27_truncated/results_f27_3_suplin.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="97" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="224" uniqueCount="16">
   <si>
     <t>Row</t>
   </si>
@@ -221,7 +221,7 @@
     <col min="1" max="1" width="12" customWidth="true"/>
     <col min="2" max="2" width="13.5546875" customWidth="true"/>
     <col min="3" max="3" width="12.5546875" customWidth="true"/>
-    <col min="4" max="4" width="12.5546875" customWidth="true"/>
+    <col min="4" max="4" width="9.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -243,13 +243,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="0">
-        <v>0.012179718181818185</v>
+        <v>0.010762027272727273</v>
       </c>
       <c r="C2" s="0">
-        <v>0.10467014545454546</v>
+        <v>0.14205229090909091</v>
       </c>
       <c r="D2" s="0">
-        <v>0.89480093636363633</v>
+        <v>0.80741879999999999</v>
       </c>
     </row>
     <row r="3">
@@ -297,7 +297,7 @@
     <col min="3" max="3" width="14.5546875" customWidth="true"/>
     <col min="4" max="4" width="14.5546875" customWidth="true"/>
     <col min="5" max="5" width="14.5546875" customWidth="true"/>
-    <col min="6" max="6" width="14.5546875" customWidth="true"/>
+    <col min="6" max="6" width="9.5546875" customWidth="true"/>
     <col min="7" max="7" width="14.5546875" customWidth="true"/>
     <col min="8" max="8" width="13.5546875" customWidth="true"/>
   </cols>
@@ -334,22 +334,22 @@
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0">
-        <v>0.0044131545454545451</v>
+        <v>0.0061638545454545451</v>
       </c>
       <c r="D2" s="0">
-        <v>0.0028419272727272728</v>
+        <v>0.0046146818181818181</v>
       </c>
       <c r="E2" s="0">
-        <v>0.0025669454545454548</v>
+        <v>0.0041392909090909088</v>
       </c>
       <c r="F2" s="0">
-        <v>0.0033022363636363641</v>
+        <v>0.0045102000000000007</v>
       </c>
       <c r="G2" s="0">
-        <v>0.0024738454545454548</v>
+        <v>0.0042998818181818176</v>
       </c>
       <c r="H2" s="0">
-        <v>0.012179718181818185</v>
+        <v>0.010762027272727273</v>
       </c>
     </row>
     <row r="3">
@@ -358,22 +358,22 @@
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
-        <v>0.004970736363636364</v>
+        <v>0.0060617909090909102</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0037693363636363639</v>
+        <v>0.0053066636363636359</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0036354909090909092</v>
+        <v>0.0051282818181818185</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0034474818181818188</v>
+        <v>0.0058128090909090905</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0036453818181818184</v>
+        <v>0.0050242999999999998</v>
       </c>
       <c r="H3" s="0">
-        <v>0.012179718181818185</v>
+        <v>0.010762027272727273</v>
       </c>
     </row>
   </sheetData>
@@ -583,10 +583,10 @@
     <col min="1" max="1" width="4.6640625" customWidth="true"/>
     <col min="2" max="2" width="6.6640625" customWidth="true"/>
     <col min="3" max="3" width="12.5546875" customWidth="true"/>
-    <col min="4" max="4" width="9.5546875" customWidth="true"/>
+    <col min="4" max="4" width="12.5546875" customWidth="true"/>
     <col min="5" max="5" width="12.5546875" customWidth="true"/>
     <col min="6" max="6" width="12.5546875" customWidth="true"/>
-    <col min="7" max="7" width="12.5546875" customWidth="true"/>
+    <col min="7" max="7" width="9.5546875" customWidth="true"/>
     <col min="8" max="8" width="12.5546875" customWidth="true"/>
   </cols>
   <sheetData>
@@ -622,22 +622,22 @@
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0">
-        <v>0.12851714545454546</v>
+        <v>0.17630411818181818</v>
       </c>
       <c r="D2" s="0">
-        <v>0.10367639999999999</v>
+        <v>0.15361495454545457</v>
       </c>
       <c r="E2" s="0">
-        <v>0.10828484545454545</v>
+        <v>0.16253203636363636</v>
       </c>
       <c r="F2" s="0">
-        <v>0.10995025454545453</v>
+        <v>0.16508200909090909</v>
       </c>
       <c r="G2" s="0">
-        <v>0.11186967272727272</v>
+        <v>0.1624324</v>
       </c>
       <c r="H2" s="0">
-        <v>0.10467014545454546</v>
+        <v>0.14205229090909091</v>
       </c>
     </row>
     <row r="3">
@@ -646,22 +646,22 @@
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
-        <v>0.12667993636363636</v>
+        <v>0.20947471818181818</v>
       </c>
       <c r="D3" s="0">
-        <v>0.13308608181818185</v>
+        <v>0.20688745454545457</v>
       </c>
       <c r="E3" s="0">
-        <v>0.13727714545454545</v>
+        <v>0.20760893636363639</v>
       </c>
       <c r="F3" s="0">
-        <v>0.13669303636363636</v>
+        <v>0.21109425454545452</v>
       </c>
       <c r="G3" s="0">
-        <v>0.1466044</v>
+        <v>0.20507115454545455</v>
       </c>
       <c r="H3" s="0">
-        <v>0.10467014545454546</v>
+        <v>0.14205229090909091</v>
       </c>
     </row>
   </sheetData>
@@ -872,10 +872,10 @@
     <col min="2" max="2" width="6.6640625" customWidth="true"/>
     <col min="3" max="3" width="11.5546875" customWidth="true"/>
     <col min="4" max="4" width="11.5546875" customWidth="true"/>
-    <col min="5" max="5" width="9.5546875" customWidth="true"/>
-    <col min="6" max="6" width="7.6640625" customWidth="true"/>
+    <col min="5" max="5" width="11.5546875" customWidth="true"/>
+    <col min="6" max="6" width="11.5546875" customWidth="true"/>
     <col min="7" max="7" width="11.5546875" customWidth="true"/>
-    <col min="8" max="8" width="12.5546875" customWidth="true"/>
+    <col min="8" max="8" width="9.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -910,22 +910,22 @@
       </c>
       <c r="B2" s="0"/>
       <c r="C2" s="0">
-        <v>1.4539565363636364</v>
+        <v>1.266580681818182</v>
       </c>
       <c r="D2" s="0">
-        <v>1.182700390909091</v>
+        <v>1.0873234545454549</v>
       </c>
       <c r="E2" s="0">
-        <v>1.1304764999999997</v>
+        <v>1.0636520727272727</v>
       </c>
       <c r="F2" s="0">
-        <v>1.12005</v>
+        <v>1.0540692727272727</v>
       </c>
       <c r="G2" s="0">
-        <v>1.0886243454545452</v>
+        <v>1.0337735181818184</v>
       </c>
       <c r="H2" s="0">
-        <v>0.89480093636363633</v>
+        <v>0.80741879999999999</v>
       </c>
     </row>
     <row r="3">
@@ -934,22 +934,22 @@
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0">
-        <v>1.3971956181818179</v>
+        <v>1.2956943000000001</v>
       </c>
       <c r="D3" s="0">
-        <v>1.4569189181818181</v>
+        <v>1.3524910454545456</v>
       </c>
       <c r="E3" s="0">
-        <v>1.3586254636363633</v>
+        <v>1.3043582000000002</v>
       </c>
       <c r="F3" s="0">
-        <v>1.3474199818181818</v>
+        <v>1.3280382272727271</v>
       </c>
       <c r="G3" s="0">
-        <v>1.3692899545454544</v>
+        <v>1.2647279636363633</v>
       </c>
       <c r="H3" s="0">
-        <v>0.89480093636363633</v>
+        <v>0.80741879999999999</v>
       </c>
     </row>
   </sheetData>

--- a/F27_truncated/results_f27_3_suplin.xlsx
+++ b/F27_truncated/results_f27_3_suplin.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="224" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="235" uniqueCount="22">
   <si>
     <t>Row</t>
   </si>
@@ -71,6 +71,24 @@
   </si>
   <si>
     <t>n=10^5</t>
+  </si>
+  <si>
+    <t>Average Time</t>
+  </si>
+  <si>
+    <t>Average Iter</t>
+  </si>
+  <si>
+    <t>Violation</t>
+  </si>
+  <si>
+    <t>Average iter Bt</t>
+  </si>
+  <si>
+    <t>Average iter cg</t>
+  </si>
+  <si>
+    <t>N converged</t>
   </si>
 </sst>
 </file>
@@ -212,16 +230,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="true"/>
-    <col min="2" max="2" width="13.5546875" customWidth="true"/>
-    <col min="3" max="3" width="12.5546875" customWidth="true"/>
-    <col min="4" max="4" width="9.5546875" customWidth="true"/>
+    <col min="1" max="1" width="13" customWidth="true"/>
+    <col min="2" max="2" width="14.5546875" customWidth="true"/>
+    <col min="3" max="3" width="13.5546875" customWidth="true"/>
+    <col min="4" max="4" width="13.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -240,21 +258,21 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0">
-        <v>0.010762027272727273</v>
+        <v>0.021423909090909091</v>
       </c>
       <c r="C2" s="0">
-        <v>0.14205229090909091</v>
+        <v>0.16751673636363631</v>
       </c>
       <c r="D2" s="0">
-        <v>0.80741879999999999</v>
+        <v>1.0377829090909092</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0">
         <v>41</v>
@@ -278,6 +296,62 @@
       </c>
       <c r="D4" s="0">
         <v>0.49841515809972309</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.097560975609756087</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.042553191489361701</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.018867924528301886</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1.219512195121951</v>
+      </c>
+      <c r="C7" s="0">
+        <v>1.2127659574468088</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1.1509433962264151</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="0">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
